--- a/configTools/Luban/ConfigRoot/Datas/style.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/style.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17655" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="font" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="辅助表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="font" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="辅助表" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1187,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1978,7 +1978,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/style.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/style.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17655" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="font" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="辅助表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="font" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="辅助表" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/configTools/Luban/ConfigRoot/Datas/style.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/style.xlsx
@@ -1187,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1978,7 +1978,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
